--- a/Assignment 1/record.xlsx
+++ b/Assignment 1/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjingbo/Desktop/cs4641/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AEDA88-8525-224D-AE8A-FEDDA91A389D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49518B97-283C-FB49-AAFA-2F7C2F9E8C3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DD2F0DDE-0205-4144-B159-5BE9123B63EB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="69">
   <si>
     <t>training size</t>
   </si>
@@ -154,9 +154,6 @@
     <t>performance (full-size)</t>
   </si>
   <si>
-    <t>performance (0.9)</t>
-  </si>
-  <si>
     <t>wine</t>
   </si>
   <si>
@@ -242,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +253,13 @@
       <color rgb="FF3B4C57"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3B4C57"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +487,7 @@
                   <c:v>0.94689500000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.955202</c:v>
+                  <c:v>0.96242799999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +601,7 @@
                   <c:v>0.89869299999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90390199999999998</c:v>
+                  <c:v>0.90968199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +715,7 @@
                   <c:v>0.89951000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90968199999999999</c:v>
+                  <c:v>0.92340999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +829,7 @@
                   <c:v>0.92732599999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91279100000000002</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,7 +2122,7 @@
                   <c:v>0.91094799999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90895999999999999</c:v>
+                  <c:v>0.92124300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,7 +2236,7 @@
                   <c:v>0.98255800000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.98837200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,21 +2304,7 @@
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Training Set Size </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>[#instances(percentage of the entire training set)]</a:t>
+                  <a:t>Training Set Size [#instances(percentage of the entire training set)]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400" baseline="0">
                   <a:effectLst/>
@@ -2325,8 +2316,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.116878398337719E-2"/>
-              <c:y val="0.8211447625192283"/>
+              <c:x val="3.6023467554982765E-2"/>
+              <c:y val="0.89968568190637865"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2458,8 +2449,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.4478972002329093E-2"/>
-              <c:y val="8.9743688566812266E-2"/>
+              <c:x val="2.4479003495520978E-2"/>
+              <c:y val="0.19773746631477881"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2536,6 +2527,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66828311602902968"/>
+          <c:y val="0.1148224765008702"/>
+          <c:w val="0.32011134614948206"/>
+          <c:h val="0.65282203432194852"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2693,7 +2694,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Test Performance (Trained on Full Training Set)</c:v>
+            <c:v>Test Performance</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2765,34 +2766,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.98837200000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.94767400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92732599999999998</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77034899999999995</c:v>
+                  <c:v>0.79941899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75872099999999998</c:v>
+                  <c:v>0.77325600000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75872099999999998</c:v>
+                  <c:v>0.77325600000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75872099999999998</c:v>
+                  <c:v>0.77325600000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75872099999999998</c:v>
+                  <c:v>0.77325600000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75872099999999998</c:v>
+                  <c:v>0.77325600000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75872099999999998</c:v>
+                  <c:v>0.77325600000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,121 +2802,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF07-184F-A6B0-EA1379C6048D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Test Performance (Trained on 90% Training Set)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$143:$A$152</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$143:$C$152</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.98255800000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95058100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93023299999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78488400000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78197700000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78197700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78197700000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78197700000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.78197700000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78197700000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF07-184F-A6B0-EA1379C6048D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3381,19 +3267,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.93310000000000004</c:v>
+                  <c:v>0.95058100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.99127900000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.99709300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.99419999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>0.98260000000000003</c:v>
+                  <c:v>0.98839999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8018,37 +7904,37 @@
                   <c:v>0.82442199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90606900000000001</c:v>
+                  <c:v>0.91040500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92124300000000003</c:v>
+                  <c:v>0.919798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93786099999999994</c:v>
+                  <c:v>0.93858399999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94653200000000004</c:v>
+                  <c:v>0.95375699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.955202</c:v>
+                  <c:v>0.96242799999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.955202</c:v>
+                  <c:v>0.96242799999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.959538</c:v>
+                  <c:v>0.96242799999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.959538</c:v>
+                  <c:v>0.96242799999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96098300000000003</c:v>
+                  <c:v>0.96604000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96748599999999996</c:v>
+                  <c:v>0.97037600000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96748599999999996</c:v>
+                  <c:v>0.97037600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8142,40 +8028,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.80419099999999999</c:v>
+                  <c:v>0.82369899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87283200000000005</c:v>
+                  <c:v>0.88872799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87933499999999998</c:v>
+                  <c:v>0.89089600000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88367099999999998</c:v>
+                  <c:v>0.894509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89667600000000003</c:v>
+                  <c:v>0.90101200000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90390199999999998</c:v>
+                  <c:v>0.90968199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90823699999999996</c:v>
+                  <c:v>0.91185000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90895999999999999</c:v>
+                  <c:v>0.91401699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90679200000000004</c:v>
+                  <c:v>0.91474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90823699999999996</c:v>
+                  <c:v>0.91618500000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92557800000000001</c:v>
+                  <c:v>0.93135800000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92557800000000001</c:v>
+                  <c:v>0.93135800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8269,40 +8155,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.81686000000000003</c:v>
+                  <c:v>0.81395300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88081399999999999</c:v>
+                  <c:v>0.89244199999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88372099999999998</c:v>
+                  <c:v>0.90116300000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89825600000000005</c:v>
+                  <c:v>0.921512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90407000000000004</c:v>
+                  <c:v>0.93313999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91279100000000002</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91279100000000002</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.918605</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.918605</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91279100000000002</c:v>
+                  <c:v>0.94476700000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.95058100000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.95058100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8575,6 +8461,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64427194738095028"/>
+          <c:y val="0.15362689343157154"/>
+          <c:w val="0.34005166682830917"/>
+          <c:h val="0.63351698055484496"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11965,7 +11861,7 @@
                   <c:v>0.98774499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98121400000000003</c:v>
+                  <c:v>0.979769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12079,7 +11975,7 @@
                   <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12159,8 +12055,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.12218966659387909"/>
-              <c:y val="0.83768250193782723"/>
+              <c:x val="0.18053420615569454"/>
+              <c:y val="0.91212438324881928"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12362,6 +12258,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66025249201473113"/>
+          <c:y val="0.15734394592483117"/>
+          <c:w val="0.3277067938476691"/>
+          <c:h val="0.57677565445303502"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12591,7 +12497,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.99349699999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -12706,31 +12612,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.97615600000000002</c:v>
+                  <c:v>0.97760100000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97760100000000005</c:v>
+                  <c:v>0.98121400000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.98193600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.980491</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.979769</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98121400000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98121400000000003</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98121400000000003</c:v>
+                  <c:v>0.980491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98121400000000003</c:v>
+                  <c:v>0.979769</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.980491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98121400000000003</c:v>
+                  <c:v>0.980491</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.98121400000000003</c:v>
@@ -12821,34 +12727,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98546500000000004</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99418600000000001</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13348,22 +13254,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89534899999999995</c:v>
+                  <c:v>0.90116300000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94767400000000002</c:v>
+                  <c:v>0.956395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.956395</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98546500000000004</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99127900000000002</c:v>
+                  <c:v>0.99709300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13559,8 +13465,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.3032628166147585E-2"/>
-              <c:y val="0.12476263768939876"/>
+              <c:x val="2.303266413036964E-2"/>
+              <c:y val="0.21750813821633869"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -14006,7 +13912,7 @@
                   <c:v>0.95914999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94942199999999999</c:v>
+                  <c:v>0.95159000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14120,7 +14026,7 @@
                   <c:v>0.98837200000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93604699999999996</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14403,6 +14309,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66803431402781599"/>
+          <c:y val="0.1717038336931673"/>
+          <c:w val="0.31849428874886787"/>
+          <c:h val="0.55034006723565676"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14621,7 +14537,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.955202</c:v>
+                  <c:v>0.96242799999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -14724,28 +14640,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.90390199999999998</c:v>
+                  <c:v>0.90968199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92774599999999996</c:v>
+                  <c:v>0.93569400000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94147400000000003</c:v>
+                  <c:v>0.94942199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94508700000000001</c:v>
+                  <c:v>0.94942199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95231200000000005</c:v>
+                  <c:v>0.95159000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95448</c:v>
+                  <c:v>0.959538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95664700000000003</c:v>
+                  <c:v>0.96098300000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96026</c:v>
+                  <c:v>0.96098300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14827,28 +14743,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.91279100000000002</c:v>
+                  <c:v>0.93895300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94767400000000002</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94767400000000002</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.953488</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94767400000000002</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.953488</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94476700000000002</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94767400000000002</c:v>
+                  <c:v>0.99127900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15368,7 +15284,7 @@
                   <c:v>0.94035899999999994</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0%">
-                  <c:v>0.94364199999999998</c:v>
+                  <c:v>0.95375699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15482,7 +15398,7 @@
                   <c:v>0.93382399999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92340999999999995</c:v>
+                  <c:v>0.94291899999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15596,7 +15512,7 @@
                   <c:v>0.93313999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.94767400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15664,18 +15580,7 @@
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Training Set Size </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>[#instances(percentage of the entire training set)]</a:t>
+                  <a:t>Training Set Size [#instances(percentage of the entire training set)]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400" baseline="0">
                   <a:effectLst/>
@@ -15881,9 +15786,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62396830198338571"/>
+          <c:x val="0.65777055243527949"/>
           <c:y val="0.22907103462224651"/>
-          <c:w val="0.37295642377222121"/>
+          <c:w val="0.33915410793192496"/>
           <c:h val="0.53144076724999323"/>
         </c:manualLayout>
       </c:layout>
@@ -16116,10 +16021,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.94364199999999998</c:v>
+                  <c:v>0.95375699999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99927699999999997</c:v>
+                  <c:v>0.99855499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0%">
                   <c:v>1</c:v>
@@ -16231,34 +16136,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.93313999999999997</c:v>
+                  <c:v>0.94767400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98837200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0%">
-                  <c:v>1</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0%">
-                  <c:v>1</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.99418600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99418600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.99127900000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98837200000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98546500000000004</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98255800000000004</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97965100000000005</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95930199999999999</c:v>
+                  <c:v>0.99418600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29633,15 +29538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>170756</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:colOff>21344</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>67553</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138739</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234791</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53361</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29669,15 +29574,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17370</xdr:colOff>
+      <xdr:colOff>17366</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2606</xdr:rowOff>
+      <xdr:rowOff>2604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>351693</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78154</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608319</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29705,15 +29610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>471509</xdr:colOff>
+      <xdr:colOff>87306</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>141914</xdr:rowOff>
+      <xdr:rowOff>35191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781539</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>136769</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192101</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29740,16 +29645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8527</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>13184</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488778</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>173266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>864454</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:rowOff>160084</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29777,15 +29682,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>242934</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>191106</xdr:rowOff>
+      <xdr:colOff>200245</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>116401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>229681</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>27022</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>928488</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>138740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29813,15 +29718,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>167052</xdr:colOff>
+      <xdr:colOff>167053</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>3845</xdr:rowOff>
+      <xdr:rowOff>46534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>308162</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>779077</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>140073</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29849,15 +29754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>472495</xdr:colOff>
+      <xdr:colOff>312411</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>171519</xdr:rowOff>
+      <xdr:rowOff>192101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>831103</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1291345</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>93383</xdr:rowOff>
+      <xdr:rowOff>85379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29885,15 +29790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207308</xdr:colOff>
+      <xdr:colOff>325540</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:rowOff>124732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>946509</xdr:colOff>
+      <xdr:colOff>884464</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>107831</xdr:rowOff>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29923,13 +29828,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>135106</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>155551</xdr:rowOff>
+      <xdr:rowOff>155550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>846044</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>133554</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29956,16 +29861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>212072</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>6329</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>960466</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>153739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>351278</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>67554</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>793751</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29992,16 +29897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>192384</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>53951</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>850062</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>144665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>722721</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>115313</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30035,9 +29940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330840</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>10672</xdr:rowOff>
+      <xdr:colOff>941160</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30801,8 +30706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4288CE2E-E4A2-4B4D-A9CF-227001FE30CD}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159:B164"/>
+    <sheetView topLeftCell="A149" zoomScale="88" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31143,28 +31048,28 @@
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>0.955202</v>
+        <v>0.96242799999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1">
-        <v>0.90390199999999998</v>
+        <v>0.90968199999999999</v>
       </c>
       <c r="G14" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="1">
-        <v>0.90968199999999999</v>
+        <v>0.92340999999999995</v>
       </c>
       <c r="K14" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -31195,7 +31100,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -31212,16 +31117,16 @@
         <v>0.82442199999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.81686000000000003</v>
+        <v>0.81395300000000004</v>
       </c>
       <c r="E18">
         <v>1E-3</v>
       </c>
       <c r="F18" s="1">
-        <v>0.80419099999999999</v>
+        <v>0.82369899999999996</v>
       </c>
       <c r="G18" s="1">
-        <v>0.81686000000000003</v>
+        <v>0.81395300000000004</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -31231,19 +31136,19 @@
         <v>0.05</v>
       </c>
       <c r="B19" s="1">
-        <v>0.90606900000000001</v>
+        <v>0.91040500000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>0.88081399999999999</v>
+        <v>0.89244199999999996</v>
       </c>
       <c r="E19">
         <v>0.05</v>
       </c>
       <c r="F19" s="1">
-        <v>0.87283200000000005</v>
+        <v>0.88872799999999996</v>
       </c>
       <c r="G19" s="1">
-        <v>0.88081399999999999</v>
+        <v>0.89244199999999996</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -31253,19 +31158,19 @@
         <v>0.1</v>
       </c>
       <c r="B20" s="1">
-        <v>0.92124300000000003</v>
+        <v>0.919798</v>
       </c>
       <c r="C20" s="1">
-        <v>0.88372099999999998</v>
+        <v>0.90116300000000005</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
       <c r="F20" s="1">
-        <v>0.87933499999999998</v>
+        <v>0.89089600000000002</v>
       </c>
       <c r="G20" s="1">
-        <v>0.88372099999999998</v>
+        <v>0.90116300000000005</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -31275,19 +31180,19 @@
         <v>0.15</v>
       </c>
       <c r="B21" s="1">
-        <v>0.93786099999999994</v>
+        <v>0.93858399999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>0.89825600000000005</v>
+        <v>0.921512</v>
       </c>
       <c r="E21">
         <v>0.15</v>
       </c>
       <c r="F21" s="1">
-        <v>0.88367099999999998</v>
+        <v>0.894509</v>
       </c>
       <c r="G21" s="1">
-        <v>0.89825600000000005</v>
+        <v>0.921512</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -31297,19 +31202,19 @@
         <v>0.2</v>
       </c>
       <c r="B22" s="1">
-        <v>0.94653200000000004</v>
+        <v>0.95375699999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>0.90407000000000004</v>
+        <v>0.93313999999999997</v>
       </c>
       <c r="E22">
         <v>0.2</v>
       </c>
       <c r="F22" s="1">
-        <v>0.89667600000000003</v>
+        <v>0.90101200000000004</v>
       </c>
       <c r="G22" s="1">
-        <v>0.90407000000000004</v>
+        <v>0.93313999999999997</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -31319,19 +31224,19 @@
         <v>0.25</v>
       </c>
       <c r="B23" s="1">
-        <v>0.955202</v>
+        <v>0.96242799999999995</v>
       </c>
       <c r="C23" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="E23">
         <v>0.25</v>
       </c>
       <c r="F23" s="1">
-        <v>0.90390199999999998</v>
+        <v>0.90968199999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -31341,19 +31246,19 @@
         <v>0.3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.955202</v>
+        <v>0.96242799999999995</v>
       </c>
       <c r="C24" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="E24">
         <v>0.3</v>
       </c>
       <c r="F24" s="1">
-        <v>0.90823699999999996</v>
+        <v>0.91185000000000005</v>
       </c>
       <c r="G24" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -31363,19 +31268,19 @@
         <v>0.35</v>
       </c>
       <c r="B25" s="1">
-        <v>0.959538</v>
+        <v>0.96242799999999995</v>
       </c>
       <c r="C25" s="1">
-        <v>0.918605</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="E25">
         <v>0.35</v>
       </c>
       <c r="F25" s="1">
-        <v>0.90895999999999999</v>
+        <v>0.91401699999999997</v>
       </c>
       <c r="G25" s="1">
-        <v>0.918605</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -31385,19 +31290,19 @@
         <v>0.4</v>
       </c>
       <c r="B26" s="1">
-        <v>0.959538</v>
+        <v>0.96242799999999995</v>
       </c>
       <c r="C26" s="1">
-        <v>0.918605</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="E26">
         <v>0.4</v>
       </c>
       <c r="F26" s="1">
-        <v>0.90679200000000004</v>
+        <v>0.91474</v>
       </c>
       <c r="G26" s="1">
-        <v>0.918605</v>
+        <v>0.93895300000000004</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -31407,19 +31312,19 @@
         <v>0.45</v>
       </c>
       <c r="B27" s="1">
-        <v>0.96098300000000003</v>
+        <v>0.96604000000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.94476700000000002</v>
       </c>
       <c r="E27">
         <v>0.45</v>
       </c>
       <c r="F27" s="1">
-        <v>0.90823699999999996</v>
+        <v>0.91618500000000003</v>
       </c>
       <c r="G27" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.94476700000000002</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -31429,19 +31334,19 @@
         <v>0.6</v>
       </c>
       <c r="B28" s="1">
-        <v>0.96748599999999996</v>
+        <v>0.97037600000000002</v>
       </c>
       <c r="C28" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.95058100000000001</v>
       </c>
       <c r="E28">
         <v>0.6</v>
       </c>
       <c r="F28" s="1">
-        <v>0.92557800000000001</v>
+        <v>0.93135800000000002</v>
       </c>
       <c r="G28" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.95058100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -31449,19 +31354,19 @@
         <v>0.95</v>
       </c>
       <c r="B29" s="1">
-        <v>0.96748599999999996</v>
+        <v>0.97037600000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.95058100000000001</v>
       </c>
       <c r="E29">
         <v>0.95</v>
       </c>
       <c r="F29" s="1">
-        <v>0.92557800000000001</v>
+        <v>0.93135800000000002</v>
       </c>
       <c r="G29" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.95058100000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -31841,10 +31746,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>0.98121400000000003</v>
+        <v>0.979769</v>
       </c>
       <c r="D53" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -31866,13 +31771,13 @@
         <v>100</v>
       </c>
       <c r="B56" s="2">
-        <v>0.99349699999999996</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>0.97615600000000002</v>
+        <v>0.97760100000000005</v>
       </c>
       <c r="D56" s="1">
-        <v>0.98546500000000004</v>
+        <v>0.99418600000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -31883,7 +31788,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>0.97760100000000005</v>
+        <v>0.98121400000000003</v>
       </c>
       <c r="D57" s="1">
         <v>0.99418600000000001</v>
@@ -31897,10 +31802,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>0.979769</v>
+        <v>0.98193600000000003</v>
       </c>
       <c r="D58" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -31911,10 +31816,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>0.98121400000000003</v>
+        <v>0.980491</v>
       </c>
       <c r="D59" s="1">
-        <v>0.99418600000000001</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -31925,10 +31830,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>0.98121400000000003</v>
+        <v>0.979769</v>
       </c>
       <c r="D60" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -31939,10 +31844,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>0.98121400000000003</v>
+        <v>0.980491</v>
       </c>
       <c r="D61" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -31953,10 +31858,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>0.98121400000000003</v>
+        <v>0.979769</v>
       </c>
       <c r="D62" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -31970,7 +31875,7 @@
         <v>0.980491</v>
       </c>
       <c r="D63" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -31981,10 +31886,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>0.98121400000000003</v>
+        <v>0.980491</v>
       </c>
       <c r="D64" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -31998,7 +31903,7 @@
         <v>0.98121400000000003</v>
       </c>
       <c r="D65" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -32017,7 +31922,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1">
-        <v>0.89534899999999995</v>
+        <v>0.90116300000000005</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -32025,7 +31930,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="1">
-        <v>0.94767400000000002</v>
+        <v>0.956395</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -32033,7 +31938,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>0.956395</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -32041,7 +31946,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="1">
-        <v>0.98546500000000004</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -32049,7 +31954,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99418600000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -32057,7 +31962,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -32213,10 +32118,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>0.94942199999999999</v>
+        <v>0.95159000000000005</v>
       </c>
       <c r="D86" s="1">
-        <v>0.93604699999999996</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -32238,13 +32143,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="2">
-        <v>0.955202</v>
+        <v>0.96242799999999995</v>
       </c>
       <c r="C89" s="1">
-        <v>0.90390199999999998</v>
+        <v>0.90968199999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>0.91279100000000002</v>
+        <v>0.93895300000000004</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -32255,10 +32160,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>0.92774599999999996</v>
+        <v>0.93569400000000003</v>
       </c>
       <c r="D90" s="1">
-        <v>0.94767400000000002</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -32269,10 +32174,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>0.94147400000000003</v>
+        <v>0.94942199999999999</v>
       </c>
       <c r="D91" s="1">
-        <v>0.94767400000000002</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -32283,10 +32188,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>0.94508700000000001</v>
+        <v>0.94942199999999999</v>
       </c>
       <c r="D92" s="1">
-        <v>0.953488</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -32297,10 +32202,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>0.95231200000000005</v>
+        <v>0.95159000000000005</v>
       </c>
       <c r="D93" s="1">
-        <v>0.94767400000000002</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -32311,10 +32216,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="1">
-        <v>0.95448</v>
+        <v>0.959538</v>
       </c>
       <c r="D94" s="1">
-        <v>0.953488</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -32325,10 +32230,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>0.95664700000000003</v>
+        <v>0.96098300000000003</v>
       </c>
       <c r="D95" s="1">
-        <v>0.94476700000000002</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -32339,10 +32244,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>0.96026</v>
+        <v>0.96098300000000003</v>
       </c>
       <c r="D96" s="1">
-        <v>0.94767400000000002</v>
+        <v>0.99127900000000002</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -32495,13 +32400,13 @@
         <v>15</v>
       </c>
       <c r="B110" s="2">
-        <v>0.94364199999999998</v>
+        <v>0.95375699999999997</v>
       </c>
       <c r="C110" s="1">
-        <v>0.92340999999999995</v>
+        <v>0.94291899999999995</v>
       </c>
       <c r="D110" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.94767400000000002</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -32537,10 +32442,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="1">
-        <v>0.94364199999999998</v>
+        <v>0.95375699999999997</v>
       </c>
       <c r="C114" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.94767400000000002</v>
       </c>
       <c r="E114">
         <v>0.01</v>
@@ -32557,7 +32462,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1">
-        <v>0.99927699999999997</v>
+        <v>0.99855499999999997</v>
       </c>
       <c r="C115" s="1">
         <v>0.98837200000000003</v>
@@ -32580,7 +32485,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E116">
         <v>0.1</v>
@@ -32600,7 +32505,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E117">
         <v>0.15</v>
@@ -32620,7 +32525,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>0.99127900000000002</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E118">
         <v>0.2</v>
@@ -32640,7 +32545,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="1">
-        <v>0.98837200000000003</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E119">
         <v>0.25</v>
@@ -32660,7 +32565,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>0.98546500000000004</v>
+        <v>0.99127900000000002</v>
       </c>
       <c r="E120">
         <v>0.3</v>
@@ -32680,7 +32585,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>0.98255800000000004</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E121">
         <v>0.35</v>
@@ -32700,7 +32605,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="1">
-        <v>0.97965100000000005</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E122">
         <v>0.4</v>
@@ -32720,7 +32625,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>0.95930199999999999</v>
+        <v>0.99418600000000001</v>
       </c>
       <c r="E123">
         <v>0.45</v>
@@ -32910,10 +32815,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>0.90895999999999999</v>
+        <v>0.92124300000000003</v>
       </c>
       <c r="D140" s="1">
-        <v>0.93313999999999997</v>
+        <v>0.98837200000000003</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -32923,139 +32828,116 @@
       <c r="B142" t="s">
         <v>41</v>
       </c>
-      <c r="C142" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143" s="1">
-        <v>0.93313999999999997</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.98255800000000004</v>
-      </c>
+        <v>0.98837200000000003</v>
+      </c>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>5</v>
       </c>
       <c r="B144" s="1">
-        <v>0.93313999999999997</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.95058100000000001</v>
-      </c>
+        <v>0.94767400000000002</v>
+      </c>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10</v>
       </c>
       <c r="B145" s="1">
-        <v>0.92732599999999998</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.93023299999999998</v>
-      </c>
+        <v>0.93895300000000004</v>
+      </c>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>15</v>
       </c>
       <c r="B146" s="1">
-        <v>0.77034899999999995</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.78488400000000003</v>
-      </c>
+        <v>0.79941899999999999</v>
+      </c>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>20</v>
       </c>
       <c r="B147" s="1">
-        <v>0.75872099999999998</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.78197700000000003</v>
-      </c>
+        <v>0.77325600000000005</v>
+      </c>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>25</v>
       </c>
       <c r="B148" s="1">
-        <v>0.75872099999999998</v>
-      </c>
-      <c r="C148" s="1">
-        <v>0.78197700000000003</v>
-      </c>
+        <v>0.77325600000000005</v>
+      </c>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>30</v>
       </c>
       <c r="B149" s="1">
-        <v>0.75872099999999998</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0.78197700000000003</v>
-      </c>
+        <v>0.77325600000000005</v>
+      </c>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>35</v>
       </c>
       <c r="B150" s="1">
-        <v>0.75872099999999998</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.78197700000000003</v>
-      </c>
+        <v>0.77325600000000005</v>
+      </c>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>40</v>
       </c>
       <c r="B151" s="1">
-        <v>0.75872099999999998</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0.78197700000000003</v>
-      </c>
+        <v>0.77325600000000005</v>
+      </c>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>45</v>
       </c>
       <c r="B152" s="1">
-        <v>0.75872099999999998</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.78197700000000003</v>
-      </c>
+        <v>0.77325600000000005</v>
+      </c>
+      <c r="C152" s="1"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>61</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B160" s="1">
-        <v>0.93310000000000004</v>
+        <v>0.95058100000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B161" s="2">
         <v>1</v>
@@ -33063,30 +32945,31 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>66</v>
-      </c>
-      <c r="B162" s="1">
-        <v>0.99127900000000002</v>
+        <v>65</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0.99709300000000001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>67</v>
-      </c>
-      <c r="B163" s="2">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0.99419999999999997</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>68</v>
-      </c>
-      <c r="B164" s="1">
-        <v>0.98260000000000003</v>
+        <v>67</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0.98839999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -33095,8 +32978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C55FDA-F5C6-E14E-8D54-771C2E29E7F3}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B134" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:B160"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33108,7 +32991,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -33121,10 +33004,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -33132,7 +33015,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>0.82352899999999996</v>
@@ -33150,7 +33033,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>0.88363199999999997</v>
@@ -33168,7 +33051,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>0.88746800000000003</v>
@@ -33186,7 +33069,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>0.88427100000000003</v>
@@ -33204,7 +33087,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>0.84654700000000005</v>
@@ -33222,7 +33105,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>0.90537100000000004</v>
@@ -33240,7 +33123,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
         <v>0.90135200000000004</v>
@@ -33258,7 +33141,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <v>0.88554999999999995</v>
@@ -33276,7 +33159,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1">
         <v>0.890594</v>
@@ -33294,7 +33177,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>0.91732599999999997</v>
@@ -33306,7 +33189,7 @@
         <v>0.89070499999999997</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -33318,10 +33201,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -33511,7 +33394,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -33618,7 +33501,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>0.89002599999999998</v>
@@ -33632,7 +33515,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1">
         <v>0.82480799999999999</v>
@@ -33646,7 +33529,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
         <v>0.80988899999999997</v>
@@ -33660,7 +33543,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2">
         <v>0.79219899999999999</v>
@@ -33674,7 +33557,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2">
         <v>0.78925800000000002</v>
@@ -33688,7 +33571,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <v>0.79454400000000003</v>
@@ -33702,7 +33585,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>0.76361000000000001</v>
@@ -33716,7 +33599,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2">
         <v>0.77046000000000003</v>
@@ -33730,7 +33613,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
         <v>0.77522000000000002</v>
@@ -33744,7 +33627,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2">
         <v>0.77953600000000001</v>
@@ -33761,10 +33644,10 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
         <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -33926,7 +33809,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="2">
         <v>0.83375999999999995</v>
@@ -33940,7 +33823,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -33954,7 +33837,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -33968,7 +33851,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -33982,7 +33865,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -33996,7 +33879,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -34010,7 +33893,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -34024,7 +33907,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -34038,7 +33921,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -34052,7 +33935,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -34069,7 +33952,7 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -34173,7 +34056,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B101" s="2">
         <v>0.764706</v>
@@ -34187,7 +34070,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B102" s="1">
         <v>0.75447600000000004</v>
@@ -34201,7 +34084,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103" s="2">
         <v>0.75703299999999996</v>
@@ -34215,7 +34098,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104" s="2">
         <v>0.74936100000000005</v>
@@ -34229,7 +34112,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B105" s="2">
         <v>0.75498699999999996</v>
@@ -34243,7 +34126,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B106" s="1">
         <v>0.74211400000000005</v>
@@ -34257,7 +34140,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B107" s="2">
         <v>0.73620799999999997</v>
@@ -34271,7 +34154,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B108" s="2">
         <v>0.74392599999999998</v>
@@ -34285,7 +34168,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" s="2">
         <v>0.74481399999999998</v>
@@ -34299,7 +34182,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B110" s="2">
         <v>0.75529500000000005</v>
@@ -34324,7 +34207,7 @@
         <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -34585,7 +34468,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -34599,7 +34482,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -34613,7 +34496,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133" s="2">
         <v>1</v>
@@ -34627,7 +34510,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B134" s="2">
         <v>1</v>
@@ -34641,7 +34524,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -34655,7 +34538,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -34669,7 +34552,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B137" s="2">
         <v>1</v>
@@ -34683,7 +34566,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B138" s="2">
         <v>1</v>
@@ -34697,7 +34580,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B139" s="2">
         <v>1</v>
@@ -34711,7 +34594,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B140" s="2">
         <v>1</v>
@@ -34823,15 +34706,15 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>61</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="3">
         <v>0.89380000000000004</v>
@@ -34839,7 +34722,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B157" s="3">
         <v>0.79877399999999998</v>
@@ -34847,7 +34730,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B158" s="3">
         <v>0.97139900000000001</v>
@@ -34855,7 +34738,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="3">
         <v>0.75380000000000003</v>
@@ -34863,7 +34746,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B160" s="3">
         <v>0.96220000000000006</v>
